--- a/biology/Botanique/Aechmea_angustifolia/Aechmea_angustifolia.xlsx
+++ b/biology/Botanique/Aechmea_angustifolia/Aechmea_angustifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aechmea angustifolia est une espèce de plante de la famille des Bromeliaceae, largement présente en Amérique centrale et en Amérique du Sud et décrite en 1838.
 </t>
@@ -511,19 +523,21 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Aechmea andradei Gilmartin[2]
-Aechmea boliviana Rusby[2]
-Aechmea cumingii Baker[2]
-Aechmea cylindrica Mez[2]
-Aechmea dryanderae Harms[2]
-Aechmea eggersii Mez[2]
-Aechmea inconspicua Harms[2]
-Aechmea leucocarpa André[2]
-Hohenbergia angustifolia (Poepp. &amp; Endl.) Baker[2]
-Hoplophytum angustifolium (Poepp. &amp; Endl.) Beer[2]
+Aechmea andradei Gilmartin
+Aechmea boliviana Rusby
+Aechmea cumingii Baker
+Aechmea cylindrica Mez
+Aechmea dryanderae Harms
+Aechmea eggersii Mez
+Aechmea inconspicua Harms
+Aechmea leucocarpa André
+Hohenbergia angustifolia (Poepp. &amp; Endl.) Baker
+Hoplophytum angustifolium (Poepp. &amp; Endl.) Beer
 </t>
         </is>
       </c>
@@ -552,9 +566,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est largement présente en Amérique centrale et en Amérique du Sud[3]. Elle se rencontre notamment au Costa Rica, au Honduras, au Nicaragua et au Panama ; ainsi qu'en Colombie, au Venezuela, au Guyana, en Bolivie, en Équateur au Pérou et au nord du Brésil[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est largement présente en Amérique centrale et en Amérique du Sud. Elle se rencontre notamment au Costa Rica, au Honduras, au Nicaragua et au Panama ; ainsi qu'en Colombie, au Venezuela, au Guyana, en Bolivie, en Équateur au Pérou et au nord du Brésil.
 </t>
         </is>
       </c>
@@ -583,7 +599,9 @@
           <t>Cultivars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Aechmea 'Brimstone'
 Aechmea 'El Morro'
@@ -617,9 +635,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la classification de Raunkier, l'espèce est épiphyte[3]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la classification de Raunkier, l'espèce est épiphyte. 
 </t>
         </is>
       </c>
